--- a/Main/DriveBase custom/Material list  parts/Material list.xlsx
+++ b/Main/DriveBase custom/Material list  parts/Material list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018\Jeff Sort this\1504\DriveBase custom\Material list  parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff1\Documents\GitHub\CAD2018\Main\DriveBase custom\Material list  parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>https://www.fastenal.com/products/details/1124040?r=~%7Ccategoryl1:%22600000%20Fasteners%22%7C~%20~%7Ccategoryl2:%22600039%20Sockets%22%7C~%20~%7Ccategoryl3:%22600043%20Button%20Socket%20Cap%20Screws%22%7C~</t>
   </si>
   <si>
-    <t>#10-32 x 1/2"</t>
-  </si>
-  <si>
     <t>$19.83/PKg of 100</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>https://8020.net/shop/1010.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #10-32 x 1/2"</t>
   </si>
 </sst>
 </file>
@@ -332,9 +332,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,7 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +366,12 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -690,17 +692,17 @@
   <dimension ref="A2:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="81.25" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="98.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -739,23 +741,23 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>192.95</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>50</v>
+      <c r="G4" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="H4">
         <v>192.95</v>
@@ -765,22 +767,22 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
@@ -789,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6">
@@ -799,13 +801,13 @@
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>47</v>
+      <c r="C7" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
@@ -814,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7">
@@ -826,10 +828,10 @@
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -839,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8">
@@ -876,20 +878,20 @@
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="18" t="str">
         <f>C42</f>
         <v>https://www.vexrobotics.com/vexpro/motion/mecanum-wheels.html</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="8"/>
@@ -902,13 +904,13 @@
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -927,7 +929,7 @@
       <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>54.97</v>
       </c>
       <c r="G12" s="8"/>
@@ -942,7 +944,7 @@
       <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -966,10 +968,10 @@
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -990,7 +992,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1004,7 +1006,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1173,7 +1175,7 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>19</v>
       </c>
     </row>
